--- a/학습 목차.xlsx
+++ b/학습 목차.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\openCV_practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\openCV_Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B72E4B-281B-4D96-AD77-0707E8737FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4183178-6377-4AD6-87F5-7AF8E9615699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{8DE2C87E-972E-4259-A568-2B964E015FD6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DE2C87E-972E-4259-A568-2B964E015FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +609,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,17 +639,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -954,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BF6730-8A13-43D7-A8B8-45E9896C6274}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -976,7 +991,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B1" t="s">
@@ -1014,28 +1029,25 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
-        <v>71</v>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
         <v>120</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="L2" t="s">
@@ -1049,28 +1061,25 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
-        <v>72</v>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
         <v>121</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="4" t="s">
         <v>156</v>
       </c>
       <c r="L3" t="s">
@@ -1084,28 +1093,25 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" t="s">
         <v>122</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L4" t="s">
@@ -1119,28 +1125,25 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>74</v>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
         <v>123</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L5" t="s">
@@ -1154,28 +1157,25 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
-        <v>75</v>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
         <v>124</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="4" t="s">
         <v>159</v>
       </c>
       <c r="L6" t="s">
@@ -1189,28 +1189,25 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>76</v>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="4" t="s">
         <v>160</v>
       </c>
       <c r="L7" t="s">
@@ -1224,28 +1221,25 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>77</v>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" t="s">
         <v>126</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" s="4" t="s">
         <v>161</v>
       </c>
       <c r="L8" t="s">
@@ -1259,28 +1253,25 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
-        <v>78</v>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1291,28 +1282,25 @@
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
         <v>128</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1323,28 +1311,25 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
-        <v>80</v>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" t="s">
         <v>129</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1355,25 +1340,22 @@
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" t="s">
         <v>130</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1384,25 +1366,22 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
-        <v>82</v>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
         <v>131</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1413,22 +1392,19 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>83</v>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1436,19 +1412,19 @@
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
-        <v>84</v>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1456,117 +1432,168 @@
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>85</v>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>86</v>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="D30" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
